--- a/test/resources/spreadsheet/schullandheim/Aufgabe_Schullandheim_Muster.xlsx
+++ b/test/resources/spreadsheet/schullandheim/Aufgabe_Schullandheim_Muster.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25635" yWindow="0" windowWidth="25560" windowHeight="28800" tabRatio="459"/>
+    <workbookView xWindow="25635" yWindow="0" windowWidth="25560" windowHeight="28800" tabRatio="459" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Einführung" sheetId="1" r:id="rId1"/>
@@ -668,8 +668,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-407];[Red]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407]"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -764,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,6 +822,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2800,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
@@ -4421,7 +4425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
@@ -4614,7 +4620,7 @@
         <v>340</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="22">
+      <c r="F20" s="27">
         <f>D20/E14</f>
         <v>12.142857142857142</v>
       </c>
@@ -4683,12 +4689,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
